--- a/11-grade/7-march/18-testClasswork/3153.xlsx
+++ b/11-grade/7-march/18-testClasswork/3153.xlsx
@@ -1,33 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Data\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E001EFAC-EF33-4E67-A980-435803A9CFDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="23477" windowHeight="12574" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3153" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>1000\</t>
+    <t>БЕЗ ПОСЛЕДНЕГО</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -182,7 +194,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -374,6 +386,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -535,10 +565,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -859,19 +893,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1000"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="A101" sqref="A101:XFD101"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="2" max="2" width="9.15234375" style="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>20</v>
       </c>
@@ -879,14 +914,17 @@
         <f>A1</f>
         <v>20</v>
       </c>
-      <c r="C1" t="s">
-        <v>0</v>
+      <c r="C1">
+        <v>1000</v>
       </c>
       <c r="D1">
         <v>10000</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I1" s="3">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>20</v>
       </c>
@@ -894,8 +932,11 @@
         <f>B1+A2</f>
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I2" s="3">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>21</v>
       </c>
@@ -911,8 +952,11 @@
         <f>94+COUNT(A154:A169)</f>
         <v>110</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I3" s="3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>21</v>
       </c>
@@ -920,8 +964,11 @@
         <f t="shared" si="0"/>
         <v>82</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I4" s="3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>21</v>
       </c>
@@ -929,16 +976,23 @@
         <f t="shared" si="0"/>
         <v>103</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="6">
         <f>COUNT(A1:A102)+COUNT(A154:A169)</f>
         <v>118</v>
+      </c>
+      <c r="D5" s="5">
+        <f>E171</f>
+        <v>10000</v>
       </c>
       <c r="E5">
         <f>SUM(A1:A94)+SUM(A154:A169)</f>
         <v>8937</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I5" s="3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>24</v>
       </c>
@@ -946,8 +1000,11 @@
         <f t="shared" si="0"/>
         <v>127</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I6" s="3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>26</v>
       </c>
@@ -955,8 +1012,11 @@
         <f t="shared" si="0"/>
         <v>153</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I7" s="3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>28</v>
       </c>
@@ -964,8 +1024,11 @@
         <f t="shared" si="0"/>
         <v>181</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I8" s="3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>28</v>
       </c>
@@ -973,8 +1036,11 @@
         <f t="shared" si="0"/>
         <v>209</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I9" s="3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>31</v>
       </c>
@@ -982,8 +1048,11 @@
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I10" s="3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>31</v>
       </c>
@@ -991,8 +1060,11 @@
         <f t="shared" si="0"/>
         <v>271</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I11" s="3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>31</v>
       </c>
@@ -1000,8 +1072,11 @@
         <f t="shared" si="0"/>
         <v>302</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I12" s="3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>32</v>
       </c>
@@ -1009,8 +1084,11 @@
         <f t="shared" si="0"/>
         <v>334</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I13" s="3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>32</v>
       </c>
@@ -1018,8 +1096,11 @@
         <f t="shared" si="0"/>
         <v>366</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I14" s="3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>32</v>
       </c>
@@ -1027,8 +1108,11 @@
         <f t="shared" si="0"/>
         <v>398</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I15" s="3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>32</v>
       </c>
@@ -1036,8 +1120,11 @@
         <f t="shared" si="0"/>
         <v>430</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="I16" s="3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>34</v>
       </c>
@@ -1046,7 +1133,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>34</v>
       </c>
@@ -1055,7 +1142,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>34</v>
       </c>
@@ -1064,7 +1151,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>35</v>
       </c>
@@ -1073,7 +1160,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>35</v>
       </c>
@@ -1082,7 +1169,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>35</v>
       </c>
@@ -1091,7 +1178,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>36</v>
       </c>
@@ -1100,7 +1187,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>38</v>
       </c>
@@ -1109,7 +1196,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>38</v>
       </c>
@@ -1118,7 +1205,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>39</v>
       </c>
@@ -1127,7 +1214,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>40</v>
       </c>
@@ -1136,7 +1223,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>40</v>
       </c>
@@ -1145,7 +1232,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>41</v>
       </c>
@@ -1154,7 +1241,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>41</v>
       </c>
@@ -1163,7 +1250,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>42</v>
       </c>
@@ -1172,7 +1259,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>43</v>
       </c>
@@ -1181,7 +1268,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>44</v>
       </c>
@@ -1190,7 +1277,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>44</v>
       </c>
@@ -1199,7 +1286,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>44</v>
       </c>
@@ -1208,7 +1295,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>45</v>
       </c>
@@ -1217,7 +1304,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>45</v>
       </c>
@@ -1226,7 +1313,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>46</v>
       </c>
@@ -1235,7 +1322,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>46</v>
       </c>
@@ -1244,7 +1331,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>48</v>
       </c>
@@ -1253,7 +1340,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>48</v>
       </c>
@@ -1262,7 +1349,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>48</v>
       </c>
@@ -1271,7 +1358,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>50</v>
       </c>
@@ -1280,7 +1367,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>52</v>
       </c>
@@ -1289,7 +1376,7 @@
         <v>1595</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>53</v>
       </c>
@@ -1298,7 +1385,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>54</v>
       </c>
@@ -1307,7 +1394,7 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>56</v>
       </c>
@@ -1316,7 +1403,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>57</v>
       </c>
@@ -1325,7 +1412,7 @@
         <v>1815</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>58</v>
       </c>
@@ -1334,7 +1421,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>58</v>
       </c>
@@ -1343,7 +1430,7 @@
         <v>1931</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>58</v>
       </c>
@@ -1352,7 +1439,7 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>58</v>
       </c>
@@ -1361,7 +1448,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>59</v>
       </c>
@@ -1370,7 +1457,7 @@
         <v>2106</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>59</v>
       </c>
@@ -1379,7 +1466,7 @@
         <v>2165</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>62</v>
       </c>
@@ -1388,7 +1475,7 @@
         <v>2227</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>66</v>
       </c>
@@ -1397,7 +1484,7 @@
         <v>2293</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>66</v>
       </c>
@@ -1406,7 +1493,7 @@
         <v>2359</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>68</v>
       </c>
@@ -1415,7 +1502,7 @@
         <v>2427</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>68</v>
       </c>
@@ -1424,7 +1511,7 @@
         <v>2495</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>71</v>
       </c>
@@ -1433,7 +1520,7 @@
         <v>2566</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>72</v>
       </c>
@@ -1442,7 +1529,7 @@
         <v>2638</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>73</v>
       </c>
@@ -1451,7 +1538,7 @@
         <v>2711</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>74</v>
       </c>
@@ -1460,7 +1547,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>77</v>
       </c>
@@ -1469,7 +1556,7 @@
         <v>2862</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>81</v>
       </c>
@@ -1478,7 +1565,7 @@
         <v>2943</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>81</v>
       </c>
@@ -1487,7 +1574,7 @@
         <v>3024</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>84</v>
       </c>
@@ -1496,7 +1583,7 @@
         <v>3108</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>86</v>
       </c>
@@ -1505,7 +1592,7 @@
         <v>3194</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>86</v>
       </c>
@@ -1514,7 +1601,7 @@
         <v>3280</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>86</v>
       </c>
@@ -1523,7 +1610,7 @@
         <v>3366</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>88</v>
       </c>
@@ -1532,7 +1619,7 @@
         <v>3454</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>90</v>
       </c>
@@ -1541,7 +1628,7 @@
         <v>3544</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>93</v>
       </c>
@@ -1550,7 +1637,7 @@
         <v>3637</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>94</v>
       </c>
@@ -1559,7 +1646,7 @@
         <v>3731</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>94</v>
       </c>
@@ -1568,7 +1655,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>94</v>
       </c>
@@ -1577,7 +1664,7 @@
         <v>3919</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>94</v>
       </c>
@@ -1586,7 +1673,7 @@
         <v>4013</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>97</v>
       </c>
@@ -1595,7 +1682,7 @@
         <v>4110</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>100</v>
       </c>
@@ -1604,7 +1691,7 @@
         <v>4210</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>102</v>
       </c>
@@ -1613,7 +1700,7 @@
         <v>4312</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>109</v>
       </c>
@@ -1622,7 +1709,7 @@
         <v>4421</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>109</v>
       </c>
@@ -1631,7 +1718,7 @@
         <v>4530</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>113</v>
       </c>
@@ -1640,7 +1727,7 @@
         <v>4643</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>113</v>
       </c>
@@ -1649,7 +1736,7 @@
         <v>4756</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>114</v>
       </c>
@@ -1658,7 +1745,7 @@
         <v>4870</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>114</v>
       </c>
@@ -1667,7 +1754,7 @@
         <v>4984</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>114</v>
       </c>
@@ -1676,7 +1763,7 @@
         <v>5098</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>115</v>
       </c>
@@ -1685,7 +1772,7 @@
         <v>5213</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>115</v>
       </c>
@@ -1694,7 +1781,7 @@
         <v>5328</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>116</v>
       </c>
@@ -1703,7 +1790,7 @@
         <v>5444</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>117</v>
       </c>
@@ -1712,7 +1799,7 @@
         <v>5561</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A92">
         <v>119</v>
       </c>
@@ -1721,7 +1808,7 @@
         <v>5680</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A93">
         <v>119</v>
       </c>
@@ -1730,7 +1817,7 @@
         <v>5799</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A94">
         <v>120</v>
       </c>
@@ -1739,7 +1826,7 @@
         <v>5919</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A95">
         <v>120</v>
       </c>
@@ -1748,7 +1835,7 @@
         <v>6039</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A96">
         <v>121</v>
       </c>
@@ -1757,7 +1844,7 @@
         <v>6160</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A97">
         <v>121</v>
       </c>
@@ -1766,7 +1853,7 @@
         <v>6281</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A98">
         <v>122</v>
       </c>
@@ -1774,8 +1861,11 @@
         <f t="shared" si="1"/>
         <v>6403</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D98" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A99">
         <v>123</v>
       </c>
@@ -1788,11 +1878,11 @@
         <v>9794</v>
       </c>
       <c r="E99">
-        <f>D99+149</f>
-        <v>9943</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+        <f>$D$99+A102</f>
+        <v>9922</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A100">
         <v>124</v>
       </c>
@@ -1800,8 +1890,12 @@
         <f t="shared" si="1"/>
         <v>6650</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E100">
+        <f t="shared" ref="E100:E163" si="2">$D$99+A103</f>
+        <v>9923</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A101">
         <v>126</v>
       </c>
@@ -1809,8 +1903,12 @@
         <f t="shared" si="1"/>
         <v>6776</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E101">
+        <f t="shared" si="2"/>
+        <v>9925</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A102" s="2">
         <v>128</v>
       </c>
@@ -1818,8 +1916,12 @@
         <f t="shared" si="1"/>
         <v>6904</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E102">
+        <f t="shared" si="2"/>
+        <v>9926</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A103">
         <v>129</v>
       </c>
@@ -1827,8 +1929,12 @@
         <f t="shared" si="1"/>
         <v>7033</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E103">
+        <f t="shared" si="2"/>
+        <v>9927</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A104">
         <v>131</v>
       </c>
@@ -1836,8 +1942,12 @@
         <f t="shared" si="1"/>
         <v>7164</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E104">
+        <f t="shared" si="2"/>
+        <v>9927</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A105">
         <v>132</v>
       </c>
@@ -1845,8 +1955,12 @@
         <f t="shared" si="1"/>
         <v>7296</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E105">
+        <f t="shared" si="2"/>
+        <v>9927</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A106">
         <v>133</v>
       </c>
@@ -1854,8 +1968,12 @@
         <f t="shared" si="1"/>
         <v>7429</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E106">
+        <f t="shared" si="2"/>
+        <v>9930</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A107">
         <v>133</v>
       </c>
@@ -1863,8 +1981,12 @@
         <f t="shared" si="1"/>
         <v>7562</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E107">
+        <f t="shared" si="2"/>
+        <v>9930</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A108">
         <v>133</v>
       </c>
@@ -1872,8 +1994,12 @@
         <f t="shared" si="1"/>
         <v>7695</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E108">
+        <f t="shared" si="2"/>
+        <v>9932</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A109">
         <v>136</v>
       </c>
@@ -1881,8 +2007,12 @@
         <f t="shared" si="1"/>
         <v>7831</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E109">
+        <f t="shared" si="2"/>
+        <v>9932</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A110">
         <v>136</v>
       </c>
@@ -1890,8 +2020,12 @@
         <f t="shared" si="1"/>
         <v>7967</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E110">
+        <f t="shared" si="2"/>
+        <v>9932</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A111">
         <v>138</v>
       </c>
@@ -1899,8 +2033,12 @@
         <f t="shared" si="1"/>
         <v>8105</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E111">
+        <f t="shared" si="2"/>
+        <v>9932</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A112">
         <v>138</v>
       </c>
@@ -1908,8 +2046,12 @@
         <f t="shared" si="1"/>
         <v>8243</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E112">
+        <f t="shared" si="2"/>
+        <v>9933</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A113">
         <v>138</v>
       </c>
@@ -1917,8 +2059,12 @@
         <f t="shared" si="1"/>
         <v>8381</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E113">
+        <f t="shared" si="2"/>
+        <v>9936</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A114">
         <v>138</v>
       </c>
@@ -1926,8 +2072,12 @@
         <f t="shared" si="1"/>
         <v>8519</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E114">
+        <f t="shared" si="2"/>
+        <v>9937</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A115">
         <v>139</v>
       </c>
@@ -1935,8 +2085,12 @@
         <f t="shared" si="1"/>
         <v>8658</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E115">
+        <f t="shared" si="2"/>
+        <v>9937</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A116">
         <v>142</v>
       </c>
@@ -1944,8 +2098,12 @@
         <f t="shared" si="1"/>
         <v>8800</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E116">
+        <f t="shared" si="2"/>
+        <v>9937</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A117">
         <v>143</v>
       </c>
@@ -1953,8 +2111,12 @@
         <f t="shared" si="1"/>
         <v>8943</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E117">
+        <f t="shared" si="2"/>
+        <v>9938</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A118">
         <v>143</v>
       </c>
@@ -1962,8 +2124,12 @@
         <f t="shared" si="1"/>
         <v>9086</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E118">
+        <f t="shared" si="2"/>
+        <v>9939</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A119">
         <v>143</v>
       </c>
@@ -1971,8 +2137,12 @@
         <f t="shared" si="1"/>
         <v>9229</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E119">
+        <f t="shared" si="2"/>
+        <v>9939</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A120">
         <v>144</v>
       </c>
@@ -1980,8 +2150,12 @@
         <f t="shared" si="1"/>
         <v>9373</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E120">
+        <f t="shared" si="2"/>
+        <v>9940</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A121">
         <v>145</v>
       </c>
@@ -1989,8 +2163,12 @@
         <f t="shared" si="1"/>
         <v>9518</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E121">
+        <f t="shared" si="2"/>
+        <v>9940</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A122">
         <v>145</v>
       </c>
@@ -1998,8 +2176,12 @@
         <f t="shared" si="1"/>
         <v>9663</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E122">
+        <f t="shared" si="2"/>
+        <v>9943</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A123">
         <v>146</v>
       </c>
@@ -2007,8 +2189,12 @@
         <f t="shared" si="1"/>
         <v>9809</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E123">
+        <f t="shared" si="2"/>
+        <v>9943</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A124">
         <v>146</v>
       </c>
@@ -2016,8 +2202,12 @@
         <f t="shared" si="1"/>
         <v>9955</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E124">
+        <f t="shared" si="2"/>
+        <v>9945</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A125">
         <v>149</v>
       </c>
@@ -2025,8 +2215,12 @@
         <f t="shared" si="1"/>
         <v>10104</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E125">
+        <f t="shared" si="2"/>
+        <v>9945</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A126">
         <v>149</v>
       </c>
@@ -2034,8 +2228,12 @@
         <f t="shared" si="1"/>
         <v>10253</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E126">
+        <f t="shared" si="2"/>
+        <v>9945</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A127">
         <v>151</v>
       </c>
@@ -2043,8 +2241,12 @@
         <f t="shared" si="1"/>
         <v>10404</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E127">
+        <f t="shared" si="2"/>
+        <v>9946</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A128">
         <v>151</v>
       </c>
@@ -2052,8 +2254,12 @@
         <f t="shared" si="1"/>
         <v>10555</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E128">
+        <f t="shared" si="2"/>
+        <v>9946</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A129">
         <v>151</v>
       </c>
@@ -2061,8 +2267,12 @@
         <f t="shared" si="1"/>
         <v>10706</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E129">
+        <f t="shared" si="2"/>
+        <v>9947</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A130">
         <v>152</v>
       </c>
@@ -2070,4453 +2280,4830 @@
         <f t="shared" si="1"/>
         <v>10858</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E130">
+        <f t="shared" si="2"/>
+        <v>9947</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A131">
         <v>152</v>
       </c>
       <c r="B131" s="1">
-        <f t="shared" ref="B131:B153" si="2">B130+A131</f>
+        <f t="shared" ref="B131:B153" si="3">B130+A131</f>
         <v>11010</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E131">
+        <f t="shared" si="2"/>
+        <v>9947</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A132">
         <v>153</v>
       </c>
       <c r="B132" s="1">
+        <f t="shared" si="3"/>
+        <v>11163</v>
+      </c>
+      <c r="E132">
         <f t="shared" si="2"/>
-        <v>11163</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9949</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A133">
         <v>153</v>
       </c>
       <c r="B133" s="1">
+        <f t="shared" si="3"/>
+        <v>11316</v>
+      </c>
+      <c r="E133">
         <f t="shared" si="2"/>
-        <v>11316</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9950</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A134">
         <v>153</v>
       </c>
       <c r="B134" s="1">
+        <f t="shared" si="3"/>
+        <v>11469</v>
+      </c>
+      <c r="E134">
         <f t="shared" si="2"/>
-        <v>11469</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9951</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A135">
         <v>155</v>
       </c>
       <c r="B135" s="1">
+        <f t="shared" si="3"/>
+        <v>11624</v>
+      </c>
+      <c r="E135">
         <f t="shared" si="2"/>
-        <v>11624</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9953</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A136">
         <v>156</v>
       </c>
       <c r="B136" s="1">
+        <f t="shared" si="3"/>
+        <v>11780</v>
+      </c>
+      <c r="E136">
         <f t="shared" si="2"/>
-        <v>11780</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9954</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A137">
         <v>157</v>
       </c>
       <c r="B137" s="1">
+        <f t="shared" si="3"/>
+        <v>11937</v>
+      </c>
+      <c r="E137">
         <f t="shared" si="2"/>
-        <v>11937</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9955</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A138">
         <v>159</v>
       </c>
       <c r="B138" s="1">
+        <f t="shared" si="3"/>
+        <v>12096</v>
+      </c>
+      <c r="E138">
         <f t="shared" si="2"/>
-        <v>12096</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9955</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A139">
         <v>160</v>
       </c>
       <c r="B139" s="1">
+        <f t="shared" si="3"/>
+        <v>12256</v>
+      </c>
+      <c r="E139">
         <f t="shared" si="2"/>
-        <v>12256</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9956</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A140">
         <v>161</v>
       </c>
       <c r="B140" s="1">
+        <f t="shared" si="3"/>
+        <v>12417</v>
+      </c>
+      <c r="E140">
         <f t="shared" si="2"/>
-        <v>12417</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9957</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A141">
         <v>161</v>
       </c>
       <c r="B141" s="1">
+        <f t="shared" si="3"/>
+        <v>12578</v>
+      </c>
+      <c r="E141">
         <f t="shared" si="2"/>
-        <v>12578</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9957</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A142">
         <v>162</v>
       </c>
       <c r="B142" s="1">
+        <f t="shared" si="3"/>
+        <v>12740</v>
+      </c>
+      <c r="E142">
         <f t="shared" si="2"/>
-        <v>12740</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9958</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A143">
         <v>163</v>
       </c>
       <c r="B143" s="1">
+        <f t="shared" si="3"/>
+        <v>12903</v>
+      </c>
+      <c r="E143">
         <f t="shared" si="2"/>
-        <v>12903</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9959</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A144">
         <v>163</v>
       </c>
       <c r="B144" s="1">
+        <f t="shared" si="3"/>
+        <v>13066</v>
+      </c>
+      <c r="E144">
         <f t="shared" si="2"/>
-        <v>13066</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9961</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A145">
         <v>164</v>
       </c>
       <c r="B145" s="1">
+        <f t="shared" si="3"/>
+        <v>13230</v>
+      </c>
+      <c r="E145">
         <f t="shared" si="2"/>
-        <v>13230</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9964</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A146">
         <v>165</v>
       </c>
       <c r="B146" s="1">
+        <f t="shared" si="3"/>
+        <v>13395</v>
+      </c>
+      <c r="E146">
         <f t="shared" si="2"/>
-        <v>13395</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9965</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A147">
         <v>167</v>
       </c>
       <c r="B147" s="1">
+        <f t="shared" si="3"/>
+        <v>13562</v>
+      </c>
+      <c r="E147">
         <f t="shared" si="2"/>
-        <v>13562</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9969</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A148">
         <v>170</v>
       </c>
       <c r="B148" s="1">
+        <f t="shared" si="3"/>
+        <v>13732</v>
+      </c>
+      <c r="E148">
         <f t="shared" si="2"/>
-        <v>13732</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9969</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A149">
         <v>171</v>
       </c>
       <c r="B149" s="1">
+        <f t="shared" si="3"/>
+        <v>13903</v>
+      </c>
+      <c r="E149">
         <f t="shared" si="2"/>
-        <v>13903</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9971</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A150">
         <v>175</v>
       </c>
       <c r="B150" s="1">
+        <f t="shared" si="3"/>
+        <v>14078</v>
+      </c>
+      <c r="E150">
         <f t="shared" si="2"/>
-        <v>14078</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9973</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A151">
         <v>175</v>
       </c>
       <c r="B151" s="1">
+        <f t="shared" si="3"/>
+        <v>14253</v>
+      </c>
+      <c r="E151">
         <f t="shared" si="2"/>
-        <v>14253</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9976</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A152">
         <v>177</v>
       </c>
       <c r="B152" s="1">
+        <f t="shared" si="3"/>
+        <v>14430</v>
+      </c>
+      <c r="E152">
         <f t="shared" si="2"/>
-        <v>14430</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9976</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A153">
         <v>179</v>
       </c>
       <c r="B153" s="1">
+        <f t="shared" si="3"/>
+        <v>14609</v>
+      </c>
+      <c r="E153">
         <f t="shared" si="2"/>
-        <v>14609</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>9977</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A154" s="1">
         <v>182</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E154">
+        <f t="shared" si="2"/>
+        <v>9979</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A155" s="1">
         <v>182</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E155">
+        <f t="shared" si="2"/>
+        <v>9979</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A156" s="1">
         <v>183</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E156">
+        <f t="shared" si="2"/>
+        <v>9980</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A157" s="1">
         <v>185</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E157">
+        <f t="shared" si="2"/>
+        <v>9980</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A158" s="1">
         <v>185</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E158">
+        <f t="shared" si="2"/>
+        <v>9980</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A159" s="1">
         <v>186</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E159">
+        <f t="shared" si="2"/>
+        <v>9984</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A160" s="1">
         <v>186</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E160">
+        <f t="shared" si="2"/>
+        <v>9984</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A161" s="1">
         <v>186</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E161">
+        <f t="shared" si="2"/>
+        <v>9984</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A162" s="1">
         <v>190</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E162">
+        <f t="shared" si="2"/>
+        <v>9985</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A163" s="1">
         <v>190</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E163">
+        <f t="shared" si="2"/>
+        <v>9989</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A164" s="1">
         <v>190</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E164">
+        <f t="shared" ref="E164:E223" si="4">$D$99+A167</f>
+        <v>9989</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A165" s="1">
         <v>191</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E165">
+        <f t="shared" si="4"/>
+        <v>9990</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A166" s="1">
         <v>195</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E166">
+        <f t="shared" si="4"/>
+        <v>9990</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A167" s="1">
         <v>195</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E167">
+        <f t="shared" si="4"/>
+        <v>9997</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A168" s="1">
         <v>196</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E168">
+        <f t="shared" si="4"/>
+        <v>9998</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A169" s="1">
         <v>196</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E169">
+        <f t="shared" si="4"/>
+        <v>9998</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A170">
         <v>203</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171">
+      <c r="E170">
+        <f t="shared" si="4"/>
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A171" s="4">
         <v>204</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172">
+      <c r="E171" s="4">
+        <f t="shared" si="4"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A172" s="4">
         <v>204</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E172" s="4">
+        <f t="shared" si="4"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A173">
         <v>205</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E173">
+        <f t="shared" si="4"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A174">
         <v>206</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E174">
+        <f t="shared" si="4"/>
+        <v>10002</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A175">
         <v>206</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E175">
+        <f t="shared" si="4"/>
+        <v>10003</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A176">
         <v>206</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E176">
+        <f t="shared" si="4"/>
+        <v>10004</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A177">
         <v>208</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E177">
+        <f t="shared" si="4"/>
+        <v>10004</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A178">
         <v>209</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E178">
+        <f t="shared" si="4"/>
+        <v>10004</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A179">
         <v>210</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E179">
+        <f t="shared" si="4"/>
+        <v>10004</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A180">
         <v>210</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E180">
+        <f t="shared" si="4"/>
+        <v>10004</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A181">
         <v>210</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E181">
+        <f t="shared" si="4"/>
+        <v>10005</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A182">
         <v>210</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E182">
+        <f t="shared" si="4"/>
+        <v>10005</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A183">
         <v>210</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E183">
+        <f t="shared" si="4"/>
+        <v>10007</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A184">
         <v>211</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E184">
+        <f t="shared" si="4"/>
+        <v>10009</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A185">
         <v>211</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E185">
+        <f t="shared" si="4"/>
+        <v>10011</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A186">
         <v>213</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E186">
+        <f t="shared" si="4"/>
+        <v>10014</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A187">
         <v>215</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E187">
+        <f t="shared" si="4"/>
+        <v>10014</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A188">
         <v>217</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E188">
+        <f t="shared" si="4"/>
+        <v>10016</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A189">
         <v>220</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E189">
+        <f t="shared" si="4"/>
+        <v>10018</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A190">
         <v>220</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E190">
+        <f t="shared" si="4"/>
+        <v>10018</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A191">
         <v>222</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E191">
+        <f t="shared" si="4"/>
+        <v>10018</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A192">
         <v>224</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E192">
+        <f t="shared" si="4"/>
+        <v>10018</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A193">
         <v>224</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E193">
+        <f t="shared" si="4"/>
+        <v>10020</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A194">
         <v>224</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E194">
+        <f t="shared" si="4"/>
+        <v>10020</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A195">
         <v>224</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E195">
+        <f t="shared" si="4"/>
+        <v>10020</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A196">
         <v>226</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E196">
+        <f t="shared" si="4"/>
+        <v>10020</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A197">
         <v>226</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E197">
+        <f t="shared" si="4"/>
+        <v>10023</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A198">
         <v>226</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E198">
+        <f t="shared" si="4"/>
+        <v>10023</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A199">
         <v>226</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E199">
+        <f t="shared" si="4"/>
+        <v>10026</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A200">
         <v>229</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E200">
+        <f t="shared" si="4"/>
+        <v>10028</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A201">
         <v>229</v>
       </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E201">
+        <f t="shared" si="4"/>
+        <v>10028</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A202">
         <v>232</v>
       </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E202">
+        <f t="shared" si="4"/>
+        <v>10028</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A203">
         <v>234</v>
       </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E203">
+        <f t="shared" si="4"/>
+        <v>10028</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A204">
         <v>234</v>
       </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E204">
+        <f t="shared" si="4"/>
+        <v>10029</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A205">
         <v>234</v>
       </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E205">
+        <f t="shared" si="4"/>
+        <v>10029</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A206">
         <v>234</v>
       </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E206">
+        <f t="shared" si="4"/>
+        <v>10030</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A207">
         <v>235</v>
       </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E207">
+        <f t="shared" si="4"/>
+        <v>10031</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A208">
         <v>235</v>
       </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E208">
+        <f t="shared" si="4"/>
+        <v>10032</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A209">
         <v>236</v>
       </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E209">
+        <f t="shared" si="4"/>
+        <v>10033</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A210">
         <v>237</v>
       </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E210">
+        <f t="shared" si="4"/>
+        <v>10035</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A211">
         <v>238</v>
       </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E211">
+        <f t="shared" si="4"/>
+        <v>10035</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A212">
         <v>239</v>
       </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E212">
+        <f t="shared" si="4"/>
+        <v>10037</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A213">
         <v>241</v>
       </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E213">
+        <f t="shared" si="4"/>
+        <v>10037</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A214">
         <v>241</v>
       </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E214">
+        <f t="shared" si="4"/>
+        <v>10039</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A215">
         <v>243</v>
       </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E215">
+        <f t="shared" si="4"/>
+        <v>10039</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A216">
         <v>243</v>
       </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E216">
+        <f t="shared" si="4"/>
+        <v>10040</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A217">
         <v>245</v>
       </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E217">
+        <f t="shared" si="4"/>
+        <v>10041</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A218">
         <v>245</v>
       </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E218">
+        <f t="shared" si="4"/>
+        <v>10041</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A219">
         <v>246</v>
       </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E219">
+        <f t="shared" si="4"/>
+        <v>10042</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A220">
         <v>247</v>
       </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E220">
+        <f t="shared" si="4"/>
+        <v>10043</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A221">
         <v>247</v>
       </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E221">
+        <f t="shared" si="4"/>
+        <v>10043</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A222">
         <v>248</v>
       </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E222">
+        <f t="shared" si="4"/>
+        <v>10044</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A223">
         <v>249</v>
       </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E223">
+        <f t="shared" si="4"/>
+        <v>10045</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A224">
         <v>249</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A225">
         <v>250</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A226">
         <v>251</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A227">
         <v>254</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A228">
         <v>254</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A229">
         <v>254</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A230">
         <v>255</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A231">
         <v>255</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A232">
         <v>257</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A233">
         <v>259</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A234">
         <v>260</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A235">
         <v>261</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A236">
         <v>261</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A237">
         <v>262</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A238">
         <v>262</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A239">
         <v>262</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A240">
         <v>262</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A241">
         <v>263</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A242">
         <v>266</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A243">
         <v>268</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A244">
         <v>269</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A245">
         <v>269</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A246">
         <v>271</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A247">
         <v>271</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A248">
         <v>271</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A249">
         <v>272</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A250">
         <v>273</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A251">
         <v>273</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A252">
         <v>273</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A253">
         <v>274</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A254">
         <v>275</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A255">
         <v>276</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A256">
         <v>277</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A257">
         <v>277</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A258">
         <v>279</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A259">
         <v>279</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A260">
         <v>280</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A261">
         <v>282</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A262">
         <v>282</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A263">
         <v>284</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A264">
         <v>284</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A265">
         <v>285</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A266">
         <v>286</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A267">
         <v>287</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A268">
         <v>287</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A269">
         <v>289</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A270">
         <v>289</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A271">
         <v>290</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A272">
         <v>290</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A273">
         <v>291</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A274">
         <v>291</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A275">
         <v>293</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A276">
         <v>293</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A277">
         <v>293</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A278">
         <v>294</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A279">
         <v>295</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A280">
         <v>297</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A281">
         <v>297</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A282">
         <v>297</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A283">
         <v>300</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A284">
         <v>301</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A285">
         <v>301</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A286">
         <v>301</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A287">
         <v>303</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A288">
         <v>305</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A289">
         <v>306</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A290">
         <v>308</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A291">
         <v>309</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A292">
         <v>310</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A293">
         <v>311</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A294">
         <v>312</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A295">
         <v>313</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A296">
         <v>314</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A297">
         <v>315</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A298">
         <v>317</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A299">
         <v>317</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A300">
         <v>318</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A301">
         <v>322</v>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A302">
         <v>322</v>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A303">
         <v>323</v>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A304">
         <v>323</v>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A305">
         <v>324</v>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A306">
         <v>327</v>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A307">
         <v>328</v>
       </c>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A308">
         <v>328</v>
       </c>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A309">
         <v>329</v>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A310">
         <v>330</v>
       </c>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A311">
         <v>330</v>
       </c>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A312">
         <v>330</v>
       </c>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A313">
         <v>331</v>
       </c>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A314">
         <v>331</v>
       </c>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A315">
         <v>331</v>
       </c>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A316">
         <v>331</v>
       </c>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A317">
         <v>333</v>
       </c>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A318">
         <v>335</v>
       </c>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A319">
         <v>335</v>
       </c>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A320">
         <v>336</v>
       </c>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A321">
         <v>337</v>
       </c>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A322">
         <v>337</v>
       </c>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A323">
         <v>338</v>
       </c>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A324">
         <v>346</v>
       </c>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A325">
         <v>346</v>
       </c>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A326">
         <v>348</v>
       </c>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A327">
         <v>349</v>
       </c>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A328">
         <v>350</v>
       </c>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A329">
         <v>352</v>
       </c>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A330">
         <v>352</v>
       </c>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A331">
         <v>352</v>
       </c>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A332">
         <v>353</v>
       </c>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A333">
         <v>353</v>
       </c>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A334">
         <v>353</v>
       </c>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A335">
         <v>354</v>
       </c>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A336">
         <v>354</v>
       </c>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A337">
         <v>356</v>
       </c>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A338">
         <v>358</v>
       </c>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A339">
         <v>359</v>
       </c>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A340">
         <v>360</v>
       </c>
     </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A341">
         <v>360</v>
       </c>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A342">
         <v>361</v>
       </c>
     </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A343">
         <v>361</v>
       </c>
     </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A344">
         <v>364</v>
       </c>
     </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A345">
         <v>364</v>
       </c>
     </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A346">
         <v>364</v>
       </c>
     </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A347">
         <v>365</v>
       </c>
     </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A348">
         <v>365</v>
       </c>
     </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A349">
         <v>367</v>
       </c>
     </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A350">
         <v>367</v>
       </c>
     </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A351">
         <v>367</v>
       </c>
     </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A352">
         <v>368</v>
       </c>
     </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A353">
         <v>372</v>
       </c>
     </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A354">
         <v>373</v>
       </c>
     </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A355">
         <v>374</v>
       </c>
     </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A356">
         <v>374</v>
       </c>
     </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A357">
         <v>374</v>
       </c>
     </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A358">
         <v>375</v>
       </c>
     </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A359">
         <v>377</v>
       </c>
     </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A360">
         <v>377</v>
       </c>
     </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A361">
         <v>380</v>
       </c>
     </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A362">
         <v>380</v>
       </c>
     </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A363">
         <v>380</v>
       </c>
     </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A364">
         <v>381</v>
       </c>
     </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A365">
         <v>381</v>
       </c>
     </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A366">
         <v>383</v>
       </c>
     </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A367">
         <v>386</v>
       </c>
     </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A368">
         <v>388</v>
       </c>
     </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A369">
         <v>388</v>
       </c>
     </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A370">
         <v>389</v>
       </c>
     </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A371">
         <v>390</v>
       </c>
     </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A372">
         <v>392</v>
       </c>
     </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A373">
         <v>393</v>
       </c>
     </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A374">
         <v>398</v>
       </c>
     </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A375">
         <v>398</v>
       </c>
     </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A376">
         <v>398</v>
       </c>
     </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A377">
         <v>399</v>
       </c>
     </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A378">
         <v>401</v>
       </c>
     </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A379">
         <v>405</v>
       </c>
     </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A380">
         <v>405</v>
       </c>
     </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A381">
         <v>405</v>
       </c>
     </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A382">
         <v>405</v>
       </c>
     </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A383">
         <v>407</v>
       </c>
     </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A384">
         <v>408</v>
       </c>
     </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A385">
         <v>413</v>
       </c>
     </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A386">
         <v>413</v>
       </c>
     </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A387">
         <v>413</v>
       </c>
     </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A388">
         <v>416</v>
       </c>
     </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A389">
         <v>418</v>
       </c>
     </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A390">
         <v>418</v>
       </c>
     </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A391">
         <v>419</v>
       </c>
     </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A392">
         <v>420</v>
       </c>
     </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A393">
         <v>420</v>
       </c>
     </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A394">
         <v>421</v>
       </c>
     </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A395">
         <v>425</v>
       </c>
     </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A396">
         <v>425</v>
       </c>
     </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A397">
         <v>425</v>
       </c>
     </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A398">
         <v>425</v>
       </c>
     </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A399">
         <v>427</v>
       </c>
     </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A400">
         <v>427</v>
       </c>
     </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A401">
         <v>427</v>
       </c>
     </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A402">
         <v>427</v>
       </c>
     </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A403">
         <v>429</v>
       </c>
     </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A404">
         <v>429</v>
       </c>
     </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A405">
         <v>429</v>
       </c>
     </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A406">
         <v>430</v>
       </c>
     </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A407">
         <v>431</v>
       </c>
     </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A408">
         <v>431</v>
       </c>
     </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A409">
         <v>431</v>
       </c>
     </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A410">
         <v>432</v>
       </c>
     </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A411">
         <v>433</v>
       </c>
     </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A412">
         <v>434</v>
       </c>
     </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A413">
         <v>435</v>
       </c>
     </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A414">
         <v>435</v>
       </c>
     </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A415">
         <v>435</v>
       </c>
     </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A416">
         <v>436</v>
       </c>
     </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A417">
         <v>436</v>
       </c>
     </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A418">
         <v>437</v>
       </c>
     </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A419">
         <v>438</v>
       </c>
     </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A420">
         <v>439</v>
       </c>
     </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A421">
         <v>439</v>
       </c>
     </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A422">
         <v>440</v>
       </c>
     </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A423">
         <v>440</v>
       </c>
     </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A424">
         <v>441</v>
       </c>
     </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A425">
         <v>443</v>
       </c>
     </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A426">
         <v>446</v>
       </c>
     </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A427">
         <v>446</v>
       </c>
     </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A428">
         <v>447</v>
       </c>
     </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A429">
         <v>449</v>
       </c>
     </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A430">
         <v>449</v>
       </c>
     </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A431">
         <v>450</v>
       </c>
     </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A432">
         <v>451</v>
       </c>
     </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A433">
         <v>453</v>
       </c>
     </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A434">
         <v>453</v>
       </c>
     </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A435">
         <v>453</v>
       </c>
     </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A436">
         <v>454</v>
       </c>
     </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A437">
         <v>454</v>
       </c>
     </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A438">
         <v>456</v>
       </c>
     </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A439">
         <v>457</v>
       </c>
     </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A440">
         <v>459</v>
       </c>
     </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A441">
         <v>459</v>
       </c>
     </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A442">
         <v>460</v>
       </c>
     </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A443">
         <v>461</v>
       </c>
     </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A444">
         <v>461</v>
       </c>
     </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A445">
         <v>462</v>
       </c>
     </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A446">
         <v>463</v>
       </c>
     </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A447">
         <v>465</v>
       </c>
     </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A448">
         <v>465</v>
       </c>
     </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A449">
         <v>465</v>
       </c>
     </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A450">
         <v>465</v>
       </c>
     </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A451">
         <v>466</v>
       </c>
     </row>
-    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A452">
         <v>467</v>
       </c>
     </row>
-    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A453">
         <v>468</v>
       </c>
     </row>
-    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A454">
         <v>469</v>
       </c>
     </row>
-    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A455">
         <v>469</v>
       </c>
     </row>
-    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A456">
         <v>469</v>
       </c>
     </row>
-    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A457">
         <v>470</v>
       </c>
     </row>
-    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A458">
         <v>470</v>
       </c>
     </row>
-    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A459">
         <v>470</v>
       </c>
     </row>
-    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A460">
         <v>472</v>
       </c>
     </row>
-    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A461">
         <v>473</v>
       </c>
     </row>
-    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A462">
         <v>474</v>
       </c>
     </row>
-    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A463">
         <v>474</v>
       </c>
     </row>
-    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A464">
         <v>476</v>
       </c>
     </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A465">
         <v>476</v>
       </c>
     </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A466">
         <v>477</v>
       </c>
     </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A467">
         <v>478</v>
       </c>
     </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A468">
         <v>481</v>
       </c>
     </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A469">
         <v>481</v>
       </c>
     </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A470">
         <v>482</v>
       </c>
     </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A471">
         <v>482</v>
       </c>
     </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A472">
         <v>483</v>
       </c>
     </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A473">
         <v>486</v>
       </c>
     </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A474">
         <v>487</v>
       </c>
     </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A475">
         <v>489</v>
       </c>
     </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A476">
         <v>491</v>
       </c>
     </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A477">
         <v>491</v>
       </c>
     </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A478">
         <v>492</v>
       </c>
     </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A479">
         <v>493</v>
       </c>
     </row>
-    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A480">
         <v>494</v>
       </c>
     </row>
-    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A481">
         <v>495</v>
       </c>
     </row>
-    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A482">
         <v>496</v>
       </c>
     </row>
-    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A483">
         <v>497</v>
       </c>
     </row>
-    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A484">
         <v>498</v>
       </c>
     </row>
-    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A485">
         <v>499</v>
       </c>
     </row>
-    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A486">
         <v>503</v>
       </c>
     </row>
-    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A487">
         <v>503</v>
       </c>
     </row>
-    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A488">
         <v>510</v>
       </c>
     </row>
-    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A489">
         <v>511</v>
       </c>
     </row>
-    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A490">
         <v>512</v>
       </c>
     </row>
-    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A491">
         <v>512</v>
       </c>
     </row>
-    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A492">
         <v>515</v>
       </c>
     </row>
-    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A493">
         <v>517</v>
       </c>
     </row>
-    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A494">
         <v>518</v>
       </c>
     </row>
-    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A495">
         <v>518</v>
       </c>
     </row>
-    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A496">
         <v>520</v>
       </c>
     </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A497">
         <v>521</v>
       </c>
     </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A498">
         <v>521</v>
       </c>
     </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A499">
         <v>523</v>
       </c>
     </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A500">
         <v>523</v>
       </c>
     </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A501">
         <v>523</v>
       </c>
     </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A502">
         <v>524</v>
       </c>
     </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A503">
         <v>524</v>
       </c>
     </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A504">
         <v>529</v>
       </c>
     </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A505">
         <v>529</v>
       </c>
     </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A506">
         <v>531</v>
       </c>
     </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A507">
         <v>532</v>
       </c>
     </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A508">
         <v>536</v>
       </c>
     </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A509">
         <v>536</v>
       </c>
     </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A510">
         <v>537</v>
       </c>
     </row>
-    <row r="511" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A511">
         <v>540</v>
       </c>
     </row>
-    <row r="512" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A512">
         <v>541</v>
       </c>
     </row>
-    <row r="513" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A513">
         <v>541</v>
       </c>
     </row>
-    <row r="514" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A514">
         <v>541</v>
       </c>
     </row>
-    <row r="515" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A515">
         <v>543</v>
       </c>
     </row>
-    <row r="516" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A516">
         <v>543</v>
       </c>
     </row>
-    <row r="517" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A517">
         <v>544</v>
       </c>
     </row>
-    <row r="518" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A518">
         <v>544</v>
       </c>
     </row>
-    <row r="519" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A519">
         <v>544</v>
       </c>
     </row>
-    <row r="520" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A520">
         <v>544</v>
       </c>
     </row>
-    <row r="521" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A521">
         <v>545</v>
       </c>
     </row>
-    <row r="522" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A522">
         <v>545</v>
       </c>
     </row>
-    <row r="523" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A523">
         <v>545</v>
       </c>
     </row>
-    <row r="524" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A524">
         <v>546</v>
       </c>
     </row>
-    <row r="525" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A525">
         <v>546</v>
       </c>
     </row>
-    <row r="526" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A526">
         <v>546</v>
       </c>
     </row>
-    <row r="527" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A527">
         <v>550</v>
       </c>
     </row>
-    <row r="528" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A528">
         <v>552</v>
       </c>
     </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A529">
         <v>552</v>
       </c>
     </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A530">
         <v>554</v>
       </c>
     </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A531">
         <v>554</v>
       </c>
     </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A532">
         <v>556</v>
       </c>
     </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A533">
         <v>558</v>
       </c>
     </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A534">
         <v>558</v>
       </c>
     </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A535">
         <v>558</v>
       </c>
     </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A536">
         <v>558</v>
       </c>
     </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A537">
         <v>559</v>
       </c>
     </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A538">
         <v>559</v>
       </c>
     </row>
-    <row r="539" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A539">
         <v>561</v>
       </c>
     </row>
-    <row r="540" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A540">
         <v>561</v>
       </c>
     </row>
-    <row r="541" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A541">
         <v>561</v>
       </c>
     </row>
-    <row r="542" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A542">
         <v>561</v>
       </c>
     </row>
-    <row r="543" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A543">
         <v>561</v>
       </c>
     </row>
-    <row r="544" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A544">
         <v>562</v>
       </c>
     </row>
-    <row r="545" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A545">
         <v>563</v>
       </c>
     </row>
-    <row r="546" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A546">
         <v>564</v>
       </c>
     </row>
-    <row r="547" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A547">
         <v>568</v>
       </c>
     </row>
-    <row r="548" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A548">
         <v>569</v>
       </c>
     </row>
-    <row r="549" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A549">
         <v>569</v>
       </c>
     </row>
-    <row r="550" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A550">
         <v>571</v>
       </c>
     </row>
-    <row r="551" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A551">
         <v>571</v>
       </c>
     </row>
-    <row r="552" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A552">
         <v>572</v>
       </c>
     </row>
-    <row r="553" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A553">
         <v>573</v>
       </c>
     </row>
-    <row r="554" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A554">
         <v>573</v>
       </c>
     </row>
-    <row r="555" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A555">
         <v>573</v>
       </c>
     </row>
-    <row r="556" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A556">
         <v>574</v>
       </c>
     </row>
-    <row r="557" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A557">
         <v>575</v>
       </c>
     </row>
-    <row r="558" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A558">
         <v>576</v>
       </c>
     </row>
-    <row r="559" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A559">
         <v>576</v>
       </c>
     </row>
-    <row r="560" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A560">
         <v>577</v>
       </c>
     </row>
-    <row r="561" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A561">
         <v>578</v>
       </c>
     </row>
-    <row r="562" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A562">
         <v>578</v>
       </c>
     </row>
-    <row r="563" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A563">
         <v>579</v>
       </c>
     </row>
-    <row r="564" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A564">
         <v>580</v>
       </c>
     </row>
-    <row r="565" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A565">
         <v>582</v>
       </c>
     </row>
-    <row r="566" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A566">
         <v>582</v>
       </c>
     </row>
-    <row r="567" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A567">
         <v>583</v>
       </c>
     </row>
-    <row r="568" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A568">
         <v>584</v>
       </c>
     </row>
-    <row r="569" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A569">
         <v>585</v>
       </c>
     </row>
-    <row r="570" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A570">
         <v>585</v>
       </c>
     </row>
-    <row r="571" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A571">
         <v>586</v>
       </c>
     </row>
-    <row r="572" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A572">
         <v>587</v>
       </c>
     </row>
-    <row r="573" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A573">
         <v>589</v>
       </c>
     </row>
-    <row r="574" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A574">
         <v>589</v>
       </c>
     </row>
-    <row r="575" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A575">
         <v>594</v>
       </c>
     </row>
-    <row r="576" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A576">
         <v>598</v>
       </c>
     </row>
-    <row r="577" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A577">
         <v>599</v>
       </c>
     </row>
-    <row r="578" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A578">
         <v>599</v>
       </c>
     </row>
-    <row r="579" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A579">
         <v>600</v>
       </c>
     </row>
-    <row r="580" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A580">
         <v>601</v>
       </c>
     </row>
-    <row r="581" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A581">
         <v>601</v>
       </c>
     </row>
-    <row r="582" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A582">
         <v>601</v>
       </c>
     </row>
-    <row r="583" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A583">
         <v>603</v>
       </c>
     </row>
-    <row r="584" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A584">
         <v>604</v>
       </c>
     </row>
-    <row r="585" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A585">
         <v>606</v>
       </c>
     </row>
-    <row r="586" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A586">
         <v>607</v>
       </c>
     </row>
-    <row r="587" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A587">
         <v>608</v>
       </c>
     </row>
-    <row r="588" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A588">
         <v>608</v>
       </c>
     </row>
-    <row r="589" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A589">
         <v>608</v>
       </c>
     </row>
-    <row r="590" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A590">
         <v>609</v>
       </c>
     </row>
-    <row r="591" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A591">
         <v>611</v>
       </c>
     </row>
-    <row r="592" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A592">
         <v>612</v>
       </c>
     </row>
-    <row r="593" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A593">
         <v>612</v>
       </c>
     </row>
-    <row r="594" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A594">
         <v>613</v>
       </c>
     </row>
-    <row r="595" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A595">
         <v>615</v>
       </c>
     </row>
-    <row r="596" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A596">
         <v>615</v>
       </c>
     </row>
-    <row r="597" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A597">
         <v>617</v>
       </c>
     </row>
-    <row r="598" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A598">
         <v>618</v>
       </c>
     </row>
-    <row r="599" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A599">
         <v>619</v>
       </c>
     </row>
-    <row r="600" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A600">
         <v>619</v>
       </c>
     </row>
-    <row r="601" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A601">
         <v>620</v>
       </c>
     </row>
-    <row r="602" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A602">
         <v>622</v>
       </c>
     </row>
-    <row r="603" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A603">
         <v>622</v>
       </c>
     </row>
-    <row r="604" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A604">
         <v>624</v>
       </c>
     </row>
-    <row r="605" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A605">
         <v>624</v>
       </c>
     </row>
-    <row r="606" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A606">
         <v>626</v>
       </c>
     </row>
-    <row r="607" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A607">
         <v>626</v>
       </c>
     </row>
-    <row r="608" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A608">
         <v>626</v>
       </c>
     </row>
-    <row r="609" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A609">
         <v>629</v>
       </c>
     </row>
-    <row r="610" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A610">
         <v>630</v>
       </c>
     </row>
-    <row r="611" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A611">
         <v>632</v>
       </c>
     </row>
-    <row r="612" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A612">
         <v>632</v>
       </c>
     </row>
-    <row r="613" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A613">
         <v>634</v>
       </c>
     </row>
-    <row r="614" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A614">
         <v>635</v>
       </c>
     </row>
-    <row r="615" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A615">
         <v>638</v>
       </c>
     </row>
-    <row r="616" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A616">
         <v>638</v>
       </c>
     </row>
-    <row r="617" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A617">
         <v>638</v>
       </c>
     </row>
-    <row r="618" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A618">
         <v>638</v>
       </c>
     </row>
-    <row r="619" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A619">
         <v>641</v>
       </c>
     </row>
-    <row r="620" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A620">
         <v>642</v>
       </c>
     </row>
-    <row r="621" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A621">
         <v>643</v>
       </c>
     </row>
-    <row r="622" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A622">
         <v>644</v>
       </c>
     </row>
-    <row r="623" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A623">
         <v>644</v>
       </c>
     </row>
-    <row r="624" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A624">
         <v>645</v>
       </c>
     </row>
-    <row r="625" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A625">
         <v>647</v>
       </c>
     </row>
-    <row r="626" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A626">
         <v>648</v>
       </c>
     </row>
-    <row r="627" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A627">
         <v>649</v>
       </c>
     </row>
-    <row r="628" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A628">
         <v>649</v>
       </c>
     </row>
-    <row r="629" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A629">
         <v>649</v>
       </c>
     </row>
-    <row r="630" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A630">
         <v>651</v>
       </c>
     </row>
-    <row r="631" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A631">
         <v>652</v>
       </c>
     </row>
-    <row r="632" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A632">
         <v>653</v>
       </c>
     </row>
-    <row r="633" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A633">
         <v>653</v>
       </c>
     </row>
-    <row r="634" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A634">
         <v>654</v>
       </c>
     </row>
-    <row r="635" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A635">
         <v>657</v>
       </c>
     </row>
-    <row r="636" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A636">
         <v>658</v>
       </c>
     </row>
-    <row r="637" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A637">
         <v>659</v>
       </c>
     </row>
-    <row r="638" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A638">
         <v>662</v>
       </c>
     </row>
-    <row r="639" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A639">
         <v>662</v>
       </c>
     </row>
-    <row r="640" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A640">
         <v>663</v>
       </c>
     </row>
-    <row r="641" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A641">
         <v>663</v>
       </c>
     </row>
-    <row r="642" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A642">
         <v>663</v>
       </c>
     </row>
-    <row r="643" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A643">
         <v>664</v>
       </c>
     </row>
-    <row r="644" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A644">
         <v>665</v>
       </c>
     </row>
-    <row r="645" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A645">
         <v>666</v>
       </c>
     </row>
-    <row r="646" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A646">
         <v>667</v>
       </c>
     </row>
-    <row r="647" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A647">
         <v>667</v>
       </c>
     </row>
-    <row r="648" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A648">
         <v>667</v>
       </c>
     </row>
-    <row r="649" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A649">
         <v>669</v>
       </c>
     </row>
-    <row r="650" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A650">
         <v>670</v>
       </c>
     </row>
-    <row r="651" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A651">
         <v>671</v>
       </c>
     </row>
-    <row r="652" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A652">
         <v>672</v>
       </c>
     </row>
-    <row r="653" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A653">
         <v>673</v>
       </c>
     </row>
-    <row r="654" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A654">
         <v>674</v>
       </c>
     </row>
-    <row r="655" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A655">
         <v>678</v>
       </c>
     </row>
-    <row r="656" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A656">
         <v>680</v>
       </c>
     </row>
-    <row r="657" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A657">
         <v>682</v>
       </c>
     </row>
-    <row r="658" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A658">
         <v>683</v>
       </c>
     </row>
-    <row r="659" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A659">
         <v>683</v>
       </c>
     </row>
-    <row r="660" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A660">
         <v>685</v>
       </c>
     </row>
-    <row r="661" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A661">
         <v>685</v>
       </c>
     </row>
-    <row r="662" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A662">
         <v>685</v>
       </c>
     </row>
-    <row r="663" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A663">
         <v>685</v>
       </c>
     </row>
-    <row r="664" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A664">
         <v>686</v>
       </c>
     </row>
-    <row r="665" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A665">
         <v>687</v>
       </c>
     </row>
-    <row r="666" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A666">
         <v>687</v>
       </c>
     </row>
-    <row r="667" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A667">
         <v>688</v>
       </c>
     </row>
-    <row r="668" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A668">
         <v>689</v>
       </c>
     </row>
-    <row r="669" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A669">
         <v>690</v>
       </c>
     </row>
-    <row r="670" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A670">
         <v>692</v>
       </c>
     </row>
-    <row r="671" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A671">
         <v>692</v>
       </c>
     </row>
-    <row r="672" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A672">
         <v>694</v>
       </c>
     </row>
-    <row r="673" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A673">
         <v>695</v>
       </c>
     </row>
-    <row r="674" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A674">
         <v>695</v>
       </c>
     </row>
-    <row r="675" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A675">
         <v>695</v>
       </c>
     </row>
-    <row r="676" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A676">
         <v>696</v>
       </c>
     </row>
-    <row r="677" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A677">
         <v>696</v>
       </c>
     </row>
-    <row r="678" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A678">
         <v>698</v>
       </c>
     </row>
-    <row r="679" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A679">
         <v>698</v>
       </c>
     </row>
-    <row r="680" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A680">
         <v>699</v>
       </c>
     </row>
-    <row r="681" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A681">
         <v>699</v>
       </c>
     </row>
-    <row r="682" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A682">
         <v>701</v>
       </c>
     </row>
-    <row r="683" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A683">
         <v>701</v>
       </c>
     </row>
-    <row r="684" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A684">
         <v>701</v>
       </c>
     </row>
-    <row r="685" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A685">
         <v>703</v>
       </c>
     </row>
-    <row r="686" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A686">
         <v>703</v>
       </c>
     </row>
-    <row r="687" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A687">
         <v>703</v>
       </c>
     </row>
-    <row r="688" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A688">
         <v>703</v>
       </c>
     </row>
-    <row r="689" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A689">
         <v>705</v>
       </c>
     </row>
-    <row r="690" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A690">
         <v>705</v>
       </c>
     </row>
-    <row r="691" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A691">
         <v>706</v>
       </c>
     </row>
-    <row r="692" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A692">
         <v>707</v>
       </c>
     </row>
-    <row r="693" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A693">
         <v>707</v>
       </c>
     </row>
-    <row r="694" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A694">
         <v>707</v>
       </c>
     </row>
-    <row r="695" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A695">
         <v>708</v>
       </c>
     </row>
-    <row r="696" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A696">
         <v>708</v>
       </c>
     </row>
-    <row r="697" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A697">
         <v>708</v>
       </c>
     </row>
-    <row r="698" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A698">
         <v>708</v>
       </c>
     </row>
-    <row r="699" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A699">
         <v>709</v>
       </c>
     </row>
-    <row r="700" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A700">
         <v>710</v>
       </c>
     </row>
-    <row r="701" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A701">
         <v>710</v>
       </c>
     </row>
-    <row r="702" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A702">
         <v>714</v>
       </c>
     </row>
-    <row r="703" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A703">
         <v>716</v>
       </c>
     </row>
-    <row r="704" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A704">
         <v>719</v>
       </c>
     </row>
-    <row r="705" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A705">
         <v>719</v>
       </c>
     </row>
-    <row r="706" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A706">
         <v>719</v>
       </c>
     </row>
-    <row r="707" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A707">
         <v>719</v>
       </c>
     </row>
-    <row r="708" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A708">
         <v>722</v>
       </c>
     </row>
-    <row r="709" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A709">
         <v>724</v>
       </c>
     </row>
-    <row r="710" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A710">
         <v>724</v>
       </c>
     </row>
-    <row r="711" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A711">
         <v>725</v>
       </c>
     </row>
-    <row r="712" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A712">
         <v>725</v>
       </c>
     </row>
-    <row r="713" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A713">
         <v>725</v>
       </c>
     </row>
-    <row r="714" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A714">
         <v>726</v>
       </c>
     </row>
-    <row r="715" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A715">
         <v>726</v>
       </c>
     </row>
-    <row r="716" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A716">
         <v>727</v>
       </c>
     </row>
-    <row r="717" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A717">
         <v>727</v>
       </c>
     </row>
-    <row r="718" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A718">
         <v>728</v>
       </c>
     </row>
-    <row r="719" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A719">
         <v>729</v>
       </c>
     </row>
-    <row r="720" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A720">
         <v>729</v>
       </c>
     </row>
-    <row r="721" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A721">
         <v>731</v>
       </c>
     </row>
-    <row r="722" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A722">
         <v>732</v>
       </c>
     </row>
-    <row r="723" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A723">
         <v>733</v>
       </c>
     </row>
-    <row r="724" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A724">
         <v>734</v>
       </c>
     </row>
-    <row r="725" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A725">
         <v>734</v>
       </c>
     </row>
-    <row r="726" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A726">
         <v>734</v>
       </c>
     </row>
-    <row r="727" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A727">
         <v>734</v>
       </c>
     </row>
-    <row r="728" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A728">
         <v>735</v>
       </c>
     </row>
-    <row r="729" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A729">
         <v>736</v>
       </c>
     </row>
-    <row r="730" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A730">
         <v>736</v>
       </c>
     </row>
-    <row r="731" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A731">
         <v>737</v>
       </c>
     </row>
-    <row r="732" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A732">
         <v>737</v>
       </c>
     </row>
-    <row r="733" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A733">
         <v>742</v>
       </c>
     </row>
-    <row r="734" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A734">
         <v>742</v>
       </c>
     </row>
-    <row r="735" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A735">
         <v>742</v>
       </c>
     </row>
-    <row r="736" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A736">
         <v>743</v>
       </c>
     </row>
-    <row r="737" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A737">
         <v>743</v>
       </c>
     </row>
-    <row r="738" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A738">
         <v>744</v>
       </c>
     </row>
-    <row r="739" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A739">
         <v>744</v>
       </c>
     </row>
-    <row r="740" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A740">
         <v>744</v>
       </c>
     </row>
-    <row r="741" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A741">
         <v>745</v>
       </c>
     </row>
-    <row r="742" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A742">
         <v>746</v>
       </c>
     </row>
-    <row r="743" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A743">
         <v>747</v>
       </c>
     </row>
-    <row r="744" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A744">
         <v>749</v>
       </c>
     </row>
-    <row r="745" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A745">
         <v>750</v>
       </c>
     </row>
-    <row r="746" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A746">
         <v>751</v>
       </c>
     </row>
-    <row r="747" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A747">
         <v>754</v>
       </c>
     </row>
-    <row r="748" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A748">
         <v>758</v>
       </c>
     </row>
-    <row r="749" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A749">
         <v>758</v>
       </c>
     </row>
-    <row r="750" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A750">
         <v>758</v>
       </c>
     </row>
-    <row r="751" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A751">
         <v>759</v>
       </c>
     </row>
-    <row r="752" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A752">
         <v>760</v>
       </c>
     </row>
-    <row r="753" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A753">
         <v>760</v>
       </c>
     </row>
-    <row r="754" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A754">
         <v>762</v>
       </c>
     </row>
-    <row r="755" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A755">
         <v>763</v>
       </c>
     </row>
-    <row r="756" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A756">
         <v>763</v>
       </c>
     </row>
-    <row r="757" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A757">
         <v>764</v>
       </c>
     </row>
-    <row r="758" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A758">
         <v>766</v>
       </c>
     </row>
-    <row r="759" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A759">
         <v>767</v>
       </c>
     </row>
-    <row r="760" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A760">
         <v>767</v>
       </c>
     </row>
-    <row r="761" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A761">
         <v>767</v>
       </c>
     </row>
-    <row r="762" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A762">
         <v>769</v>
       </c>
     </row>
-    <row r="763" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A763">
         <v>769</v>
       </c>
     </row>
-    <row r="764" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A764">
         <v>769</v>
       </c>
     </row>
-    <row r="765" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A765">
         <v>770</v>
       </c>
     </row>
-    <row r="766" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A766">
         <v>772</v>
       </c>
     </row>
-    <row r="767" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A767">
         <v>772</v>
       </c>
     </row>
-    <row r="768" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A768">
         <v>773</v>
       </c>
     </row>
-    <row r="769" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A769">
         <v>774</v>
       </c>
     </row>
-    <row r="770" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A770">
         <v>776</v>
       </c>
     </row>
-    <row r="771" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A771">
         <v>777</v>
       </c>
     </row>
-    <row r="772" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A772">
         <v>778</v>
       </c>
     </row>
-    <row r="773" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A773">
         <v>779</v>
       </c>
     </row>
-    <row r="774" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A774">
         <v>780</v>
       </c>
     </row>
-    <row r="775" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A775">
         <v>782</v>
       </c>
     </row>
-    <row r="776" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A776">
         <v>782</v>
       </c>
     </row>
-    <row r="777" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A777">
         <v>783</v>
       </c>
     </row>
-    <row r="778" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A778">
         <v>784</v>
       </c>
     </row>
-    <row r="779" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A779">
         <v>785</v>
       </c>
     </row>
-    <row r="780" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A780">
         <v>785</v>
       </c>
     </row>
-    <row r="781" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A781">
         <v>788</v>
       </c>
     </row>
-    <row r="782" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A782">
         <v>788</v>
       </c>
     </row>
-    <row r="783" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A783">
         <v>789</v>
       </c>
     </row>
-    <row r="784" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A784">
         <v>790</v>
       </c>
     </row>
-    <row r="785" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A785">
         <v>790</v>
       </c>
     </row>
-    <row r="786" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A786">
         <v>791</v>
       </c>
     </row>
-    <row r="787" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A787">
         <v>791</v>
       </c>
     </row>
-    <row r="788" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A788">
         <v>791</v>
       </c>
     </row>
-    <row r="789" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A789">
         <v>794</v>
       </c>
     </row>
-    <row r="790" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A790">
         <v>794</v>
       </c>
     </row>
-    <row r="791" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A791">
         <v>795</v>
       </c>
     </row>
-    <row r="792" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A792">
         <v>796</v>
       </c>
     </row>
-    <row r="793" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A793">
         <v>798</v>
       </c>
     </row>
-    <row r="794" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A794">
         <v>799</v>
       </c>
     </row>
-    <row r="795" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A795">
         <v>799</v>
       </c>
     </row>
-    <row r="796" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A796">
         <v>800</v>
       </c>
     </row>
-    <row r="797" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A797">
         <v>800</v>
       </c>
     </row>
-    <row r="798" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A798">
         <v>800</v>
       </c>
     </row>
-    <row r="799" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A799">
         <v>800</v>
       </c>
     </row>
-    <row r="800" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A800">
         <v>800</v>
       </c>
     </row>
-    <row r="801" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A801">
         <v>801</v>
       </c>
     </row>
-    <row r="802" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A802">
         <v>804</v>
       </c>
     </row>
-    <row r="803" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A803">
         <v>804</v>
       </c>
     </row>
-    <row r="804" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A804">
         <v>804</v>
       </c>
     </row>
-    <row r="805" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A805">
         <v>806</v>
       </c>
     </row>
-    <row r="806" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A806">
         <v>810</v>
       </c>
     </row>
-    <row r="807" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A807">
         <v>812</v>
       </c>
     </row>
-    <row r="808" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A808">
         <v>813</v>
       </c>
     </row>
-    <row r="809" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A809">
         <v>813</v>
       </c>
     </row>
-    <row r="810" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A810">
         <v>814</v>
       </c>
     </row>
-    <row r="811" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A811">
         <v>814</v>
       </c>
     </row>
-    <row r="812" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A812">
         <v>815</v>
       </c>
     </row>
-    <row r="813" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A813">
         <v>815</v>
       </c>
     </row>
-    <row r="814" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A814">
         <v>817</v>
       </c>
     </row>
-    <row r="815" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A815">
         <v>817</v>
       </c>
     </row>
-    <row r="816" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A816">
         <v>819</v>
       </c>
     </row>
-    <row r="817" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A817">
         <v>822</v>
       </c>
     </row>
-    <row r="818" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A818">
         <v>822</v>
       </c>
     </row>
-    <row r="819" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A819">
         <v>822</v>
       </c>
     </row>
-    <row r="820" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A820">
         <v>824</v>
       </c>
     </row>
-    <row r="821" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A821">
         <v>824</v>
       </c>
     </row>
-    <row r="822" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A822">
         <v>826</v>
       </c>
     </row>
-    <row r="823" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A823">
         <v>826</v>
       </c>
     </row>
-    <row r="824" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A824">
         <v>829</v>
       </c>
     </row>
-    <row r="825" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A825">
         <v>829</v>
       </c>
     </row>
-    <row r="826" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A826">
         <v>830</v>
       </c>
     </row>
-    <row r="827" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A827">
         <v>830</v>
       </c>
     </row>
-    <row r="828" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A828">
         <v>831</v>
       </c>
     </row>
-    <row r="829" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A829">
         <v>832</v>
       </c>
     </row>
-    <row r="830" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A830">
         <v>833</v>
       </c>
     </row>
-    <row r="831" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A831">
         <v>833</v>
       </c>
     </row>
-    <row r="832" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A832">
         <v>835</v>
       </c>
     </row>
-    <row r="833" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A833">
         <v>837</v>
       </c>
     </row>
-    <row r="834" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A834">
         <v>837</v>
       </c>
     </row>
-    <row r="835" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A835">
         <v>838</v>
       </c>
     </row>
-    <row r="836" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A836">
         <v>838</v>
       </c>
     </row>
-    <row r="837" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A837">
         <v>839</v>
       </c>
     </row>
-    <row r="838" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A838">
         <v>839</v>
       </c>
     </row>
-    <row r="839" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A839">
         <v>839</v>
       </c>
     </row>
-    <row r="840" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A840">
         <v>839</v>
       </c>
     </row>
-    <row r="841" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A841">
         <v>839</v>
       </c>
     </row>
-    <row r="842" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A842">
         <v>841</v>
       </c>
     </row>
-    <row r="843" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A843">
         <v>841</v>
       </c>
     </row>
-    <row r="844" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A844">
         <v>842</v>
       </c>
     </row>
-    <row r="845" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A845">
         <v>843</v>
       </c>
     </row>
-    <row r="846" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A846">
         <v>843</v>
       </c>
     </row>
-    <row r="847" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A847">
         <v>844</v>
       </c>
     </row>
-    <row r="848" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A848">
         <v>845</v>
       </c>
     </row>
-    <row r="849" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A849">
         <v>847</v>
       </c>
     </row>
-    <row r="850" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A850">
         <v>847</v>
       </c>
     </row>
-    <row r="851" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A851">
         <v>849</v>
       </c>
     </row>
-    <row r="852" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A852">
         <v>849</v>
       </c>
     </row>
-    <row r="853" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A853">
         <v>851</v>
       </c>
     </row>
-    <row r="854" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A854">
         <v>851</v>
       </c>
     </row>
-    <row r="855" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A855">
         <v>853</v>
       </c>
     </row>
-    <row r="856" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A856">
         <v>854</v>
       </c>
     </row>
-    <row r="857" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A857">
         <v>856</v>
       </c>
     </row>
-    <row r="858" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A858">
         <v>857</v>
       </c>
     </row>
-    <row r="859" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A859">
         <v>858</v>
       </c>
     </row>
-    <row r="860" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A860">
         <v>860</v>
       </c>
     </row>
-    <row r="861" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A861">
         <v>861</v>
       </c>
     </row>
-    <row r="862" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A862">
         <v>861</v>
       </c>
     </row>
-    <row r="863" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A863">
         <v>862</v>
       </c>
     </row>
-    <row r="864" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A864">
         <v>862</v>
       </c>
     </row>
-    <row r="865" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A865">
         <v>863</v>
       </c>
     </row>
-    <row r="866" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A866">
         <v>863</v>
       </c>
     </row>
-    <row r="867" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A867">
         <v>864</v>
       </c>
     </row>
-    <row r="868" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A868">
         <v>866</v>
       </c>
     </row>
-    <row r="869" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A869">
         <v>868</v>
       </c>
     </row>
-    <row r="870" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A870">
         <v>870</v>
       </c>
     </row>
-    <row r="871" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A871">
         <v>871</v>
       </c>
     </row>
-    <row r="872" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A872">
         <v>872</v>
       </c>
     </row>
-    <row r="873" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A873">
         <v>873</v>
       </c>
     </row>
-    <row r="874" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A874">
         <v>874</v>
       </c>
     </row>
-    <row r="875" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A875">
         <v>874</v>
       </c>
     </row>
-    <row r="876" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A876">
         <v>875</v>
       </c>
     </row>
-    <row r="877" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A877">
         <v>875</v>
       </c>
     </row>
-    <row r="878" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A878">
         <v>877</v>
       </c>
     </row>
-    <row r="879" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A879">
         <v>879</v>
       </c>
     </row>
-    <row r="880" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A880">
         <v>880</v>
       </c>
     </row>
-    <row r="881" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A881">
         <v>881</v>
       </c>
     </row>
-    <row r="882" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A882">
         <v>882</v>
       </c>
     </row>
-    <row r="883" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A883">
         <v>882</v>
       </c>
     </row>
-    <row r="884" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A884">
         <v>882</v>
       </c>
     </row>
-    <row r="885" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A885">
         <v>885</v>
       </c>
     </row>
-    <row r="886" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A886">
         <v>885</v>
       </c>
     </row>
-    <row r="887" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A887">
         <v>885</v>
       </c>
     </row>
-    <row r="888" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A888">
         <v>888</v>
       </c>
     </row>
-    <row r="889" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A889">
         <v>888</v>
       </c>
     </row>
-    <row r="890" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A890">
         <v>889</v>
       </c>
     </row>
-    <row r="891" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A891">
         <v>891</v>
       </c>
     </row>
-    <row r="892" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A892">
         <v>891</v>
       </c>
     </row>
-    <row r="893" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A893">
         <v>894</v>
       </c>
     </row>
-    <row r="894" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A894">
         <v>897</v>
       </c>
     </row>
-    <row r="895" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A895">
         <v>897</v>
       </c>
     </row>
-    <row r="896" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A896">
         <v>898</v>
       </c>
     </row>
-    <row r="897" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A897">
         <v>899</v>
       </c>
     </row>
-    <row r="898" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A898">
         <v>899</v>
       </c>
     </row>
-    <row r="899" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A899">
         <v>900</v>
       </c>
     </row>
-    <row r="900" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A900">
         <v>901</v>
       </c>
     </row>
-    <row r="901" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A901">
         <v>901</v>
       </c>
     </row>
-    <row r="902" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A902">
         <v>905</v>
       </c>
     </row>
-    <row r="903" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A903">
         <v>905</v>
       </c>
     </row>
-    <row r="904" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A904">
         <v>906</v>
       </c>
     </row>
-    <row r="905" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A905">
         <v>907</v>
       </c>
     </row>
-    <row r="906" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A906">
         <v>908</v>
       </c>
     </row>
-    <row r="907" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A907">
         <v>908</v>
       </c>
     </row>
-    <row r="908" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A908">
         <v>908</v>
       </c>
     </row>
-    <row r="909" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A909">
         <v>908</v>
       </c>
     </row>
-    <row r="910" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A910">
         <v>913</v>
       </c>
     </row>
-    <row r="911" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A911">
         <v>914</v>
       </c>
     </row>
-    <row r="912" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A912">
         <v>915</v>
       </c>
     </row>
-    <row r="913" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A913">
         <v>918</v>
       </c>
     </row>
-    <row r="914" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A914">
         <v>919</v>
       </c>
     </row>
-    <row r="915" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A915">
         <v>921</v>
       </c>
     </row>
-    <row r="916" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A916">
         <v>921</v>
       </c>
     </row>
-    <row r="917" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A917">
         <v>923</v>
       </c>
     </row>
-    <row r="918" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A918">
         <v>923</v>
       </c>
     </row>
-    <row r="919" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A919">
         <v>925</v>
       </c>
     </row>
-    <row r="920" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A920">
         <v>928</v>
       </c>
     </row>
-    <row r="921" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A921">
         <v>928</v>
       </c>
     </row>
-    <row r="922" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A922">
         <v>929</v>
       </c>
     </row>
-    <row r="923" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A923">
         <v>929</v>
       </c>
     </row>
-    <row r="924" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A924">
         <v>929</v>
       </c>
     </row>
-    <row r="925" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A925">
         <v>932</v>
       </c>
     </row>
-    <row r="926" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A926">
         <v>932</v>
       </c>
     </row>
-    <row r="927" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A927">
         <v>934</v>
       </c>
     </row>
-    <row r="928" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A928">
         <v>935</v>
       </c>
     </row>
-    <row r="929" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A929">
         <v>937</v>
       </c>
     </row>
-    <row r="930" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A930">
         <v>938</v>
       </c>
     </row>
-    <row r="931" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A931">
         <v>938</v>
       </c>
     </row>
-    <row r="932" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A932">
         <v>939</v>
       </c>
     </row>
-    <row r="933" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A933">
         <v>941</v>
       </c>
     </row>
-    <row r="934" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A934">
         <v>941</v>
       </c>
     </row>
-    <row r="935" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A935">
         <v>941</v>
       </c>
     </row>
-    <row r="936" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A936">
         <v>942</v>
       </c>
     </row>
-    <row r="937" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A937">
         <v>942</v>
       </c>
     </row>
-    <row r="938" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A938">
         <v>943</v>
       </c>
     </row>
-    <row r="939" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A939">
         <v>945</v>
       </c>
     </row>
-    <row r="940" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A940">
         <v>949</v>
       </c>
     </row>
-    <row r="941" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A941">
         <v>950</v>
       </c>
     </row>
-    <row r="942" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A942">
         <v>951</v>
       </c>
     </row>
-    <row r="943" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A943">
         <v>952</v>
       </c>
     </row>
-    <row r="944" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A944">
         <v>953</v>
       </c>
     </row>
-    <row r="945" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A945">
         <v>953</v>
       </c>
     </row>
-    <row r="946" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A946">
         <v>953</v>
       </c>
     </row>
-    <row r="947" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A947">
         <v>953</v>
       </c>
     </row>
-    <row r="948" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A948">
         <v>953</v>
       </c>
     </row>
-    <row r="949" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A949">
         <v>954</v>
       </c>
     </row>
-    <row r="950" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A950">
         <v>955</v>
       </c>
     </row>
-    <row r="951" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A951">
         <v>957</v>
       </c>
     </row>
-    <row r="952" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A952">
         <v>957</v>
       </c>
     </row>
-    <row r="953" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A953">
         <v>958</v>
       </c>
     </row>
-    <row r="954" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A954">
         <v>959</v>
       </c>
     </row>
-    <row r="955" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A955">
         <v>959</v>
       </c>
     </row>
-    <row r="956" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A956">
         <v>959</v>
       </c>
     </row>
-    <row r="957" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A957">
         <v>961</v>
       </c>
     </row>
-    <row r="958" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A958">
         <v>961</v>
       </c>
     </row>
-    <row r="959" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A959">
         <v>961</v>
       </c>
     </row>
-    <row r="960" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A960">
         <v>961</v>
       </c>
     </row>
-    <row r="961" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A961">
         <v>962</v>
       </c>
     </row>
-    <row r="962" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A962">
         <v>962</v>
       </c>
     </row>
-    <row r="963" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A963">
         <v>965</v>
       </c>
     </row>
-    <row r="964" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A964">
         <v>966</v>
       </c>
     </row>
-    <row r="965" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A965">
         <v>967</v>
       </c>
     </row>
-    <row r="966" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A966">
         <v>968</v>
       </c>
     </row>
-    <row r="967" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A967">
         <v>968</v>
       </c>
     </row>
-    <row r="968" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A968">
         <v>971</v>
       </c>
     </row>
-    <row r="969" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A969">
         <v>972</v>
       </c>
     </row>
-    <row r="970" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A970">
         <v>975</v>
       </c>
     </row>
-    <row r="971" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A971">
         <v>976</v>
       </c>
     </row>
-    <row r="972" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A972">
         <v>976</v>
       </c>
     </row>
-    <row r="973" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A973">
         <v>977</v>
       </c>
     </row>
-    <row r="974" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A974">
         <v>977</v>
       </c>
     </row>
-    <row r="975" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A975">
         <v>977</v>
       </c>
     </row>
-    <row r="976" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A976">
         <v>977</v>
       </c>
     </row>
-    <row r="977" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A977">
         <v>980</v>
       </c>
     </row>
-    <row r="978" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A978">
         <v>981</v>
       </c>
     </row>
-    <row r="979" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A979">
         <v>981</v>
       </c>
     </row>
-    <row r="980" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A980">
         <v>983</v>
       </c>
     </row>
-    <row r="981" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A981">
         <v>983</v>
       </c>
     </row>
-    <row r="982" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A982">
         <v>987</v>
       </c>
     </row>
-    <row r="983" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A983">
         <v>990</v>
       </c>
     </row>
-    <row r="984" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A984">
         <v>990</v>
       </c>
     </row>
-    <row r="985" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A985">
         <v>990</v>
       </c>
     </row>
-    <row r="986" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A986">
         <v>990</v>
       </c>
     </row>
-    <row r="987" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A987">
         <v>990</v>
       </c>
     </row>
-    <row r="988" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A988">
         <v>990</v>
       </c>
     </row>
-    <row r="989" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A989">
         <v>991</v>
       </c>
     </row>
-    <row r="990" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A990">
         <v>992</v>
       </c>
     </row>
-    <row r="991" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A991">
         <v>993</v>
       </c>
     </row>
-    <row r="992" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A992">
         <v>993</v>
       </c>
     </row>
-    <row r="993" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A993">
         <v>995</v>
       </c>
     </row>
-    <row r="994" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A994">
         <v>997</v>
       </c>
     </row>
-    <row r="995" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A995">
         <v>999</v>
       </c>
     </row>
-    <row r="996" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A996">
         <v>999</v>
       </c>
     </row>
-    <row r="997" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A997">
         <v>999</v>
       </c>
     </row>
-    <row r="998" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A998">
         <v>1000</v>
       </c>
     </row>
-    <row r="999" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A999">
         <v>1000</v>
       </c>
     </row>
-    <row r="1000" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1000">
         <v>1000</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:A1001">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A1001">
     <sortCondition ref="A1:A1001"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>